--- a/The Supermarket database/The Supermarket Databse.odb.xlsx
+++ b/The Supermarket database/The Supermarket Databse.odb.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="233">
   <si>
     <t xml:space="preserve">ProductID</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">Uncle Ben's</t>
   </si>
   <si>
+    <t xml:space="preserve">S101</t>
+  </si>
+  <si>
     <t xml:space="preserve">P2</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t xml:space="preserve">Kaluworks</t>
   </si>
   <si>
+    <t xml:space="preserve">S102</t>
+  </si>
+  <si>
     <t xml:space="preserve">P3</t>
   </si>
   <si>
@@ -97,6 +103,9 @@
     <t xml:space="preserve">Sunlite</t>
   </si>
   <si>
+    <t xml:space="preserve">S103</t>
+  </si>
+  <si>
     <t xml:space="preserve">P4</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t xml:space="preserve">Kericho Gold</t>
   </si>
   <si>
+    <t xml:space="preserve">S104</t>
+  </si>
+  <si>
     <t xml:space="preserve">P6</t>
   </si>
   <si>
@@ -139,6 +151,9 @@
     <t xml:space="preserve">Omo</t>
   </si>
   <si>
+    <t xml:space="preserve">S105</t>
+  </si>
+  <si>
     <t xml:space="preserve">P7</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t xml:space="preserve">Brookside</t>
   </si>
   <si>
+    <t xml:space="preserve">S106</t>
+  </si>
+  <si>
     <t xml:space="preserve">P8</t>
   </si>
   <si>
@@ -169,6 +187,9 @@
     <t xml:space="preserve">Kuku</t>
   </si>
   <si>
+    <t xml:space="preserve">S107</t>
+  </si>
+  <si>
     <t xml:space="preserve">P9</t>
   </si>
   <si>
@@ -184,6 +205,9 @@
     <t xml:space="preserve">Local Farm</t>
   </si>
   <si>
+    <t xml:space="preserve">S108</t>
+  </si>
+  <si>
     <t xml:space="preserve">P10</t>
   </si>
   <si>
@@ -199,6 +223,9 @@
     <t xml:space="preserve">Bimbo</t>
   </si>
   <si>
+    <t xml:space="preserve">S109</t>
+  </si>
+  <si>
     <t xml:space="preserve">CustomerID</t>
   </si>
   <si>
@@ -496,70 +523,43 @@
     <t xml:space="preserve">2022-07-18</t>
   </si>
   <si>
-    <t xml:space="preserve">S101</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fresh Foods Ltd.</t>
   </si>
   <si>
     <t xml:space="preserve">info@freshfoods.co.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">S102</t>
-  </si>
-  <si>
     <t xml:space="preserve">contact@kaluworks.co.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">S103</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sunlite Oils</t>
   </si>
   <si>
     <t xml:space="preserve">sales@sunlite.co.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">S104</t>
-  </si>
-  <si>
     <t xml:space="preserve">support@kerichogold.co.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">S105</t>
-  </si>
-  <si>
     <t xml:space="preserve">Omo Detergents</t>
   </si>
   <si>
     <t xml:space="preserve">info@omo.co.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">S106</t>
-  </si>
-  <si>
     <t xml:space="preserve">Brookside Dairy</t>
   </si>
   <si>
     <t xml:space="preserve">sales@brookside.co.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">S107</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kuku Suppliers</t>
   </si>
   <si>
     <t xml:space="preserve">contact@kuku.co.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">S108</t>
-  </si>
-  <si>
     <t xml:space="preserve">info@localfarm.co.ke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S109</t>
   </si>
   <si>
     <t xml:space="preserve">Bimbo Bakery</t>
@@ -741,7 +741,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -763,20 +762,17 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -846,11 +842,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,7 +976,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1036,25 +1032,25 @@
       <c r="G2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>101</v>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>120</v>
@@ -1062,25 +1058,25 @@
       <c r="G3" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>102</v>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>250</v>
@@ -1088,25 +1084,25 @@
       <c r="G4" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>103</v>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>100</v>
@@ -1114,25 +1110,25 @@
       <c r="G5" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>101</v>
+      <c r="H5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>300</v>
@@ -1140,25 +1136,25 @@
       <c r="G6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>104</v>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>80</v>
@@ -1166,25 +1162,25 @@
       <c r="G7" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>105</v>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>150</v>
@@ -1192,25 +1188,25 @@
       <c r="G8" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>106</v>
+      <c r="H8" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>600</v>
@@ -1218,25 +1214,25 @@
       <c r="G9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="H9" s="3" t="n">
-        <v>107</v>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>100</v>
@@ -1244,25 +1240,25 @@
       <c r="G10" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="n">
-        <v>108</v>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>60</v>
@@ -1270,8 +1266,8 @@
       <c r="G11" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="H11" s="3" t="n">
-        <v>109</v>
+      <c r="H11" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1306,189 +1302,189 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>254701234567</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>254712345678</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>254723456789</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>254734567890</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>254745678901</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>254756789012</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>254767890123</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>254778901234</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>254789012345</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>254790123456</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1521,222 +1517,222 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>1200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>850</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>2500</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>1750</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>600</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>1100</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>2200</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>1500</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>750</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>1300</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1770,189 +1766,189 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>254701234567</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>254712345678</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>254723456789</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>254734567890</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>254745678901</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>254756789012</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>254767890123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>254778901234</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>254789012345</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>254790123456</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1992,127 +1988,127 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>254701234567</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>254712345678</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>254723456789</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>254734567890</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>254745678901</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>254756789012</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>254767890123</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>254778901234</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>178</v>
@@ -2168,7 +2164,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>183</v>
@@ -2179,7 +2175,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>185</v>
@@ -2190,7 +2186,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>187</v>
@@ -2201,7 +2197,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>189</v>
@@ -2212,7 +2208,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>191</v>
@@ -2240,13 +2236,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="50.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,7 +2272,7 @@
         <v>196</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>197</v>
@@ -2298,7 +2294,7 @@
         <v>201</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>202</v>
@@ -2309,7 +2305,7 @@
         <v>203</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>204</v>
@@ -2331,7 +2327,7 @@
         <v>208</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>209</v>
@@ -2342,7 +2338,7 @@
         <v>210</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>211</v>
